--- a/Data/aearep-619/candidatepackages.xlsx
+++ b/Data/aearep-619/candidatepackages.xlsx
@@ -118,10 +118,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C2">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D2"/>
     </row>
